--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdaue\Documents\College\Rapid E.Coli\moonrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C12FFB-00AC-4A2A-9B4D-2818AE9FCAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6CD7E-497E-476B-87E3-A647B88FC877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{21CE7201-B6FC-4DE2-9FCE-2823634D0F0D}"/>
+    <workbookView xWindow="-23136" yWindow="-4146" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{21CE7201-B6FC-4DE2-9FCE-2823634D0F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Part Name</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Small box</t>
   </si>
   <si>
-    <t>Jumper wire</t>
-  </si>
-  <si>
     <t>Special Instructions</t>
   </si>
   <si>
@@ -124,6 +121,51 @@
   </si>
   <si>
     <t>Solar charging, at least 10 Ah</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>USB cables</t>
+  </si>
+  <si>
+    <t>Functionally equivalent to a transistor, just more user friendly</t>
+  </si>
+  <si>
+    <t>Can buy these together</t>
+  </si>
+  <si>
+    <t>Can be found cheaper on sparkfun</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B075PT19J2/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B085RX1L7W/ref=ppx_yo_dt_b_asin_title_o03_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01I1J14MO/ref=ppx_yo_dt_b_asin_title_o05_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B072Q2X2LL/ref=ppx_yo_dt_b_asin_title_o06_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01GH32AQU/ref=ppx_od_dt_b_asin_title_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/11288</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/13940</t>
+  </si>
+  <si>
+    <t>Similar item can be found cheaper on sparkfun</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ELEGOO-Starter-Tutorial-Compatible-Official/dp/B01DGD2GAO/ref=sxin_8?ascsubtag=amzn1.osa.2e3d30a4-cf4e-47b3-b8de-5ef6cdfc1d3d.ATVPDKIKX0DER.en_US&amp;creativeASIN=B01DGD2GAO&amp;cv_ct_cx=Arduino+Starter+Kit&amp;cv_ct_id=amzn1.osa.2e3d30a4-cf4e-47b3-b8de-5ef6cdfc1d3d.ATVPDKIKX0DER.en_US&amp;cv_ct_pg=search&amp;cv_ct_wn=osp-single-source&amp;dchild=1&amp;keywords=Arduino+Starter+Kit&amp;linkCode=oas&amp;pd_rd_i=B01DGD2GAO&amp;pd_rd_r=48659ac6-30de-4744-b680-3595b9d4c047&amp;pd_rd_w=oBBdV&amp;pd_rd_wg=E813q&amp;pf_rd_p=9e4ba918-f6ad-4007-841c-6563d381515f&amp;pf_rd_r=1X82R870T22NT9X933KA&amp;qid=1597346052&amp;sr=1-3-72d6bf18-a4db-4490-a794-9cd9552ac58d&amp;tag=theradar-20</t>
   </si>
 </sst>
 </file>
@@ -214,7 +256,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -227,6 +269,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -779,19 +830,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA93591-4A35-4850-8913-726B5AC9122B}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -799,18 +851,30 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -818,10 +882,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -829,18 +896,27 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -848,49 +924,99 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="12"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>25</v>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{7F5BACD7-9CA2-40C7-B0E5-1B8D0704FB1D}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{F09DA1A6-DC4C-45B8-B738-599E8346F8A0}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{3B4A2C99-1C0E-4A8F-9824-5A2CC91EB064}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{FEC994B1-D8E4-4C53-B647-7369C32216EE}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{A1024AB8-B955-4160-99F2-7CB00A3CE90D}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{29C0BEC1-67C0-484B-A829-17E44689D1C5}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{5072EFAA-BD99-4CD0-969A-C36D6B879482}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{582CB7F6-86AD-4B57-81D9-F28BD0D7753C}"/>
+    <hyperlink ref="E8:E10" r:id="rId9" display="https://www.amazon.com/ELEGOO-Starter-Tutorial-Compatible-Official/dp/B01DGD2GAO/ref=sxin_8?ascsubtag=amzn1.osa.2e3d30a4-cf4e-47b3-b8de-5ef6cdfc1d3d.ATVPDKIKX0DER.en_US&amp;creativeASIN=B01DGD2GAO&amp;cv_ct_cx=Arduino+Starter+Kit&amp;cv_ct_id=amzn1.osa.2e3d30a4-cf4e-47b3-b8de-5ef6cdfc1d3d.ATVPDKIKX0DER.en_US&amp;cv_ct_pg=search&amp;cv_ct_wn=osp-single-source&amp;dchild=1&amp;keywords=Arduino+Starter+Kit&amp;linkCode=oas&amp;pd_rd_i=B01DGD2GAO&amp;pd_rd_r=48659ac6-30de-4744-b680-3595b9d4c047&amp;pd_rd_w=oBBdV&amp;pd_rd_wg=E813q&amp;pf_rd_p=9e4ba918-f6ad-4007-841c-6563d381515f&amp;pf_rd_r=1X82R870T22NT9X933KA&amp;qid=1597346052&amp;sr=1-3-72d6bf18-a4db-4490-a794-9cd9552ac58d&amp;tag=theradar-20" xr:uid="{8AD64D15-91AE-4D91-97AC-CD0407BB7164}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdaue\Documents\College\Rapid E.Coli\moonrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6CD7E-497E-476B-87E3-A647B88FC877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF22987-4580-45D0-AFF8-EF90CC94CC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-4146" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{21CE7201-B6FC-4DE2-9FCE-2823634D0F0D}"/>
+    <workbookView xWindow="-23136" yWindow="-4146" windowWidth="23232" windowHeight="12552" xr2:uid="{21CE7201-B6FC-4DE2-9FCE-2823634D0F0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Parts" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Link</t>
   </si>
@@ -52,30 +42,6 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/10988</t>
-  </si>
-  <si>
-    <t>MAX31820</t>
-  </si>
-  <si>
-    <t>Digital Temperature Sensor</t>
-  </si>
-  <si>
-    <t>Analog Temperature Sensor</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/14049</t>
-  </si>
-  <si>
-    <t>0.91 OLED</t>
-  </si>
-  <si>
-    <t>LCD Screen</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/0-91- ...</t>
-  </si>
-  <si>
-    <t>Quantity</t>
   </si>
   <si>
     <t>OLED Screen</t>
@@ -172,27 +138,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,33 +154,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -239,51 +171,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,245 +502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD1EE11-7805-4E12-9DFE-96E9857C98ED}">
-  <dimension ref="B2:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6.99</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{9EBEB103-8099-4F79-A496-5A618BCF7C96}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{C8D13917-BB8D-4CB7-A865-387CA24C2CF9}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{48FD958B-A99D-4FA2-A8E3-1E32094FBE15}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA93591-4A35-4850-8913-726B5AC9122B}">
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,160 +518,160 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>42</v>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
